--- a/sinkhole_data/구별/부산진구.xlsx
+++ b/sinkhole_data/구별/부산진구.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogs0\OneDrive\바탕 화면\2025 전국대학생 CM•시공 경진대회\싱크홀 데이터\구별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D080247-6113-4729-93F2-767DE67A60CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA8B45E-70DE-4A5B-8604-2283EAA6CDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,17 +31,6 @@
     <t>부산진상수도사업소 복구완료</t>
   </si>
   <si>
-    <t>부산광역시 부산진구 전포동 (지역 불분명)</t>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>원인 미기재</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>부산광역시 부산진구 신천대로 246 메리움 아파트 옆 이면도로</t>
   </si>
   <si>
@@ -60,9 +49,6 @@
     <t>도로계획과 지반탐사 요청결과 공동 미존재</t>
   </si>
   <si>
-    <t>부산광역시 부산진구청 인근 굴다리 앞 도로</t>
-  </si>
-  <si>
     <t>부산광역시 부산진구 범천동 847-2</t>
   </si>
   <si>
@@ -106,15 +92,15 @@
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>location</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>reason</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>width</t>
@@ -127,7 +113,7 @@
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lon</t>
@@ -138,13 +124,262 @@
   <si>
     <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산진구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전포동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불분명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기타</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미기재</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산진구청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인근</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>굴다리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도로</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,32 +401,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -217,6 +427,20 @@
       <color theme="1"/>
       <name val="Noto Sans KR"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -270,9 +494,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FFDDDDDD"/>
       </right>
@@ -285,9 +507,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FFDDDDDD"/>
       </right>
@@ -303,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -311,26 +531,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,50 +864,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.4140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="8"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
@@ -705,40 +930,40 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="10">
         <v>129.06438674466301</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="10">
         <v>35.157976834572104</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="3">
+    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
         <v>43193</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6">
         <v>0.5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>1.3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>0.6</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="11">
         <v>129.06877957184099</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="11">
         <v>35.157253037875101</v>
       </c>
     </row>
@@ -747,10 +972,10 @@
         <v>43259</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2">
         <v>1.6</v>
@@ -762,12 +987,12 @@
         <v>1.5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="9">
+        <v>5</v>
+      </c>
+      <c r="H4" s="10">
         <v>129.050959561654</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="10">
         <v>35.163810210310302</v>
       </c>
     </row>
@@ -776,10 +1001,10 @@
         <v>43318</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -791,43 +1016,43 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="9">
+        <v>8</v>
+      </c>
+      <c r="H5" s="10">
         <v>129.06355110443499</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="10">
         <v>35.157909971734398</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="3">
+    <row r="6" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
         <v>43531</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6">
         <v>0.5</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>0.5</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>3</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
+      <c r="G6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -835,10 +1060,10 @@
         <v>44018</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -850,12 +1075,12 @@
         <v>0.8</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="9">
+        <v>11</v>
+      </c>
+      <c r="H7" s="10">
         <v>129.05973581483099</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="10">
         <v>35.144115033991604</v>
       </c>
     </row>
@@ -864,10 +1089,10 @@
         <v>44023</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -879,25 +1104,25 @@
         <v>0.5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="9">
+        <v>11</v>
+      </c>
+      <c r="H8" s="10">
         <v>129.07156276779801</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="10">
         <v>35.154069424631103</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>44036</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
         <v>1.2</v>
@@ -909,25 +1134,25 @@
         <v>0.3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="9">
+        <v>11</v>
+      </c>
+      <c r="H9" s="10">
         <v>129.01704224138899</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="10">
         <v>35.146599805266</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>44041</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2">
         <v>0.8</v>
@@ -939,22 +1164,22 @@
         <v>2.5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="9">
+        <v>11</v>
+      </c>
+      <c r="H10" s="10">
         <v>129.05513475481399</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="10">
         <v>35.157908902454103</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>44806</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
@@ -969,25 +1194,25 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="9">
+        <v>16</v>
+      </c>
+      <c r="H11" s="10">
         <v>129.03272869037801</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="10">
         <v>35.153537902709502</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>45065</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -999,25 +1224,25 @@
         <v>0.3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="9">
+        <v>18</v>
+      </c>
+      <c r="H12" s="10">
         <v>129.03018860295799</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="10">
         <v>35.153319169412001</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>45088</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2">
         <v>0.3</v>
@@ -1029,22 +1254,22 @@
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="9">
+        <v>20</v>
+      </c>
+      <c r="H13" s="10">
         <v>129.058134483206</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="10">
         <v>35.157200111784199</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>45169</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
@@ -1059,15 +1284,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="9">
+        <v>22</v>
+      </c>
+      <c r="H14" s="10">
         <v>129.06215949278001</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="10">
         <v>35.157987745637897</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
